--- a/data/input/absenteeism_data_15.xlsx
+++ b/data/input/absenteeism_data_15.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>61958</v>
+        <v>38491</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. João Vitor Barros</t>
+          <t>Pedro Lucas Rezende</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45103</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>11873.74</v>
+        <v>11448.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>44807</v>
+        <v>6622</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samuel Ribeiro</t>
+          <t>Srta. Maria Julia Silva</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,60 +519,60 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>10271.22</v>
+        <v>3405.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>62826</v>
+        <v>34215</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pedro Lucas Azevedo</t>
+          <t>Sra. Stephany Barbosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>4164.59</v>
+        <v>10587.94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>55791</v>
+        <v>69611</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Davi Cunha</t>
+          <t>João Guilherme Araújo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,172 +581,172 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45093</v>
       </c>
       <c r="G5" t="n">
-        <v>4485.45</v>
+        <v>8220.969999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>55703</v>
+        <v>35097</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bruna Porto</t>
+          <t>Isabel da Paz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45103</v>
+        <v>45097</v>
       </c>
       <c r="G6" t="n">
-        <v>5870.6</v>
+        <v>5182.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8007</v>
+        <v>75053</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sofia Barbosa</t>
+          <t>Miguel Ribeiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>10371.15</v>
+        <v>11870.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>25750</v>
+        <v>7539</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Agatha Cardoso</t>
+          <t>Thomas Correia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45102</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>9323.99</v>
+        <v>3511.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>69783</v>
+        <v>93038</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Laura Aragão</t>
+          <t>Lucas Gabriel da Mota</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>9779</v>
+        <v>6503.99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50311</v>
+        <v>15305</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rafaela Novaes</t>
+          <t>Maysa da Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>9288.530000000001</v>
+        <v>9899.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26622</v>
+        <v>54401</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Sofia da Mota</t>
+          <t>Agatha Sales</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45106</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>9742.129999999999</v>
+        <v>12191.6</v>
       </c>
     </row>
   </sheetData>
